--- a/pred_ohlcv/54_21/2020-01-15 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 TMTG ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-773178.8357763278</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-732409.9997763277</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-621560.4917763277</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-479766.4207763277</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-496188.3807763277</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-469659.9947763277</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-6692712.994815147</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-6652612.016815146</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-6451283.579815147</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-11221177.21281515</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-10922169.84031515</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-9146038.051774301</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-9618106.068774302</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-9147056.068774302</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-9220858.787774302</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-9066834.209774302</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-8662590.755774302</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-8394668.995774303</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-9101680.550774302</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-9191358.193774302</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-9361667.168774301</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-9886545.987774301</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-10197822.9357743</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-9468207.102774302</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-9320177.671974299</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-9159078.438974299</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-9263125.198974298</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-9210942.593974298</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-9210942.593974298</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-9210942.593974298</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-9854205.351974297</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-10320794.6030743</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-10349960.9400743</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-10303550.6810743</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-9243826.399674296</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-8983197.989574296</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-8983197.989574296</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-8957095.608574297</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-9003602.575574297</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-8868992.265574297</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-8788363.619574297</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-8697775.010574298</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-8697775.010574298</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-8743480.269574298</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-8743480.269574298</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-8634967.366574297</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-8280164.348474297</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-8240201.776474297</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-8168868.219774297</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-8017659.236074298</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-8144070.332074298</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-7629559.752101711</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-7749056.323101711</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-7200360.029339806</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-7200360.029339806</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-7289724.983639807</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-7245499.359639807</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-7196025.703239807</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-7259340.609239807</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-7439439.319239807</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-7449116.481239807</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-7386267.855239807</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-7440973.870239806</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-7599712.667239807</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-7493512.597239806</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-7488175.783239806</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-7548196.862239806</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-7548196.862239806</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-8082253.435039806</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-7941703.890039806</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-8155645.439639807</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-8283729.615639807</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-8307102.778639806</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-8234618.029639807</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-8176846.485639807</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-8369684.485039807</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-8361511.857339807</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-8392389.863139806</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-8274604.829839806</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-8143017.949339806</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-8906386.398339806</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-8906386.398339806</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-8906386.398339806</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-8856577.231490551</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-8856577.231490551</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-8856577.231490551</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-8856577.231490551</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-8856577.231490551</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-8856577.231490551</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-9041718.74689055</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-9041718.74689055</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-20477238.73826713</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-20917656.67526713</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-20874056.40126713</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-20729316.67426712</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-21861336.20976713</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-21861336.20976713</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-21184122.11976713</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-21184122.11976713</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-21059062.87876715</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-21153219.05676715</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-21205970.43376715</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-21207720.80876715</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-21207720.80876715</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-21185882.27276715</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-21121237.92476715</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-21162369.14276715</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-21162369.14276715</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-20979189.92776715</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-21803845.05086715</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-21744890.42586715</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-21569435.30086715</v>
       </c>
       <c r="H672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-21850432.63436715</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-22016707.43636715</v>
       </c>
       <c r="H687">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-22016707.43636715</v>
       </c>
       <c r="H688">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-22016707.43636715</v>
       </c>
       <c r="H689">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-22016707.43636715</v>
       </c>
       <c r="H690">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-21966673.37836716</v>
       </c>
       <c r="H691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-22116950.97236716</v>
       </c>
       <c r="H692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-22114025.94336716</v>
       </c>
       <c r="H693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-22114025.94336716</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-21929975.28736716</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-21908127.66736716</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-22016168.00736716</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-21950961.08236716</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-22110476.96136716</v>
       </c>
       <c r="H702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-22124259.50066715</v>
       </c>
       <c r="H703">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-22069544.25666716</v>
       </c>
       <c r="H704">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-22019860.77866716</v>
       </c>
       <c r="H705">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-22164474.40366716</v>
       </c>
       <c r="H706">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-22243632.67366716</v>
       </c>
       <c r="H707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-22232054.82566715</v>
       </c>
       <c r="H708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-22244620.20766715</v>
       </c>
       <c r="H709">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-22244620.20766715</v>
       </c>
       <c r="H710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-22244620.20766715</v>
       </c>
       <c r="H711">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-22131730.91066715</v>
       </c>
       <c r="H712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-22118082.80266716</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-22176578.10966716</v>
       </c>
       <c r="H714">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-22134835.73366716</v>
       </c>
       <c r="H715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-22413113.40566716</v>
       </c>
       <c r="H716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-22232809.73536248</v>
       </c>
       <c r="H717">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-22212948.33036248</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-21590798.97236248</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-22697168.56536248</v>
       </c>
       <c r="H738">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-22796243.61736248</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-22796243.61736248</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-22606740.38236248</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-22606740.38236248</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-22592437.01636248</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-22725419.54936248</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-22725419.54936248</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-22725419.54936248</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-22532042.41436248</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-22467776.17836248</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-22392772.50636248</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-22619261.09636248</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-22465768.27136248</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-22465768.27136248</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-22682858.96436248</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-22610655.08236248</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-22668724.95736248</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-22449490.38406248</v>
       </c>
       <c r="H760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-22449490.38406248</v>
       </c>
       <c r="H761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-22046757.59306248</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-22076342.47806248</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-22076342.47806248</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-21830623.54780554</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-21726745.10280554</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-21244838.43674948</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-21483302.98083107</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-21595232.11263107</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-20629811.69418117</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-20678339.00948117</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-20635173.79048117</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-20557348.58708116</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-20557348.58708116</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 TMTG ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-773178.8357763278</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-732409.9997763277</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-621560.4917763277</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-479766.4207763277</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-496188.3807763277</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-469659.9947763277</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-9146038.051774301</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-9618106.068774302</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-9147056.068774302</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-9220858.787774302</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-9066834.209774302</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-8662590.755774302</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-8394668.995774303</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-9101680.550774302</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-9191358.193774302</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-9361667.168774301</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-9886545.987774301</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-10197822.9357743</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-9468207.102774302</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-9320177.671974299</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-9159078.438974299</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-9263125.198974298</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-9210942.593974298</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-9210942.593974298</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-9210942.593974298</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-9854205.351974297</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-10320794.6030743</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-10349960.9400743</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-10303550.6810743</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-9243826.399674296</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-8983197.989574296</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-8983197.989574296</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-8957095.608574297</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-9003602.575574297</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-8868992.265574297</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-8788363.619574297</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-8697775.010574298</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-8697775.010574298</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-8743480.269574298</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-8743480.269574298</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-8634967.366574297</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-8280164.348474297</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-8240201.776474297</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-8168868.219774297</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-8017659.236074298</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-8144070.332074298</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-7629559.752101711</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-7749056.323101711</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-7200360.029339806</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-7200360.029339806</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-7200360.029339806</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-7289724.983639807</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-7245499.359639807</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-7196025.703239807</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-7259340.609239807</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-7439439.319239807</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-7449116.481239807</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-7386267.855239807</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-7440973.870239806</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-7599712.667239807</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-7493512.597239806</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-7488175.783239806</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-7548196.862239806</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-7548196.862239806</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-8082253.435039806</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-7941703.890039806</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-8155645.439639807</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-8283729.615639807</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-8307102.778639806</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-8234618.029639807</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-8176846.485639807</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-8369684.485039807</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-8361511.857339807</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-8392389.863139806</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-8274604.829839806</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-8143017.949339806</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-8906386.398339806</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-8906386.398339806</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-8906386.398339806</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-20477238.73826713</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-20917656.67526713</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-20874056.40126713</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-20729316.67426712</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-21861336.20976713</v>
       </c>
       <c r="H555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-21861336.20976713</v>
       </c>
       <c r="H556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-21184122.11976713</v>
       </c>
       <c r="H559">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-21184122.11976713</v>
       </c>
       <c r="H560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-20255815.29876866</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-19833032.64736866</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-20601141.49606866</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-20773186.00006866</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-20804227.28906867</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-21059062.87876715</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-21153219.05676715</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-21205970.43376715</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-21207720.80876715</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-21207720.80876715</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-21185882.27276715</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-21121237.92476715</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-21162369.14276715</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-21162369.14276715</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-20979189.92776715</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-21803845.05086715</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-21569435.30086715</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-22016707.43636715</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-22016707.43636715</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-22016707.43636715</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-22016707.43636715</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-21966673.37836716</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-22116950.97236716</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-22114025.94336716</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-22114025.94336716</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-21929975.28736716</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-21908127.66736716</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-22016168.00736716</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-21950961.08236716</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-22110476.96136716</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-22124259.50066715</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-22069544.25666716</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-22019860.77866716</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-22164474.40366716</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-22243632.67366716</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-22232054.82566715</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-22244620.20766715</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-22244620.20766715</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-22244620.20766715</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-22131730.91066715</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-22118082.80266716</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-22176578.10966716</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-22134835.73366716</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-22413113.40566716</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-22232809.73536248</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-22212948.33036248</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-21590798.97236248</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-22730387.20936248</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-22660616.41636248</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-22660616.41636248</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-22772971.22536248</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-22697168.56536248</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-22796243.61736248</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-22796243.61736248</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-22606740.38236248</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-22606740.38236248</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-22592437.01636248</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-22725419.54936248</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-22725419.54936248</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-22725419.54936248</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-22532042.41436248</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-22467776.17836248</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-22392772.50636248</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-22619261.09636248</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-22465768.27136248</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-22465768.27136248</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-22682858.96436248</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-22610655.08236248</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-22668724.95736248</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-22668724.95736248</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-22507434.37236248</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-22610186.77706248</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-22610186.77706248</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-22449490.38406248</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-22449490.38406248</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-22046757.59306248</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-22076342.47806248</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-22076342.47806248</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-21830623.54780554</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-21726745.10280554</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-21244838.43674948</v>
       </c>
       <c r="H834">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-21483302.98083107</v>
       </c>
       <c r="H861">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-21595232.11263107</v>
       </c>
       <c r="H862">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-20629811.69418117</v>
       </c>
       <c r="H926">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-20678339.00948117</v>
       </c>
       <c r="H944">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-20635173.79048117</v>
       </c>
       <c r="H945">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-20557348.58708116</v>
       </c>
       <c r="H947">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-20557348.58708116</v>
       </c>
       <c r="H948">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
